--- a/doc/文档/operation table.xlsx
+++ b/doc/文档/operation table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\桌面\project\6502\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19A49760-E477-48AD-962C-DE3F991E12C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F86C318-73C2-4BBA-BB22-950FA407CF3C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="指令表总览" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,9 @@
     <sheet name="寻址方式" sheetId="4" r:id="rId4"/>
     <sheet name="寄存器" sheetId="5" r:id="rId5"/>
     <sheet name="操作码排序 (2)" sheetId="6" r:id="rId6"/>
+    <sheet name="6551_status" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1232" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="524">
   <si>
     <t>指令</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2082,6 +2082,42 @@
   </si>
   <si>
     <t>一般通用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>irq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dsr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dcd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txd_empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rxd_full</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>over run</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>framing error</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parity error</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2114,12 +2150,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -2149,7 +2191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2182,6 +2224,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2466,8 +2511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6450,8 +6495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036E6945-7F2F-4DC4-A6EC-907665DA2DE5}">
   <dimension ref="A1:F153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="23.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6859,11 +6904,13 @@
       <c r="C25" s="9" t="s">
         <v>449</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>133</v>
+      <c r="D25" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
+      <c r="F25" s="7">
+        <v>2</v>
+      </c>
     </row>
     <row r="26" spans="1:6" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="7">
@@ -8889,4 +8936,90 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFBC8199-1306-47AC-9C81-DC9F1762FBDD}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>523</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>